--- a/德福词汇/德福词汇2018.xlsx
+++ b/德福词汇/德福词汇2018.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yeziyang/Desktop/德语/Deutsch/德福词汇/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\德语\德福词汇\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1BA8725A-03FF-1F4D-BC7F-328D09BAD4AE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7500349-5F16-4F57-BA0C-5C577FDD6E13}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" xr2:uid="{A692899E-3455-7B4B-BA89-9FB5ABF0B340}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{A692899E-3455-7B4B-BA89-9FB5ABF0B340}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -23,9 +24,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -33,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="306">
   <si>
     <t xml:space="preserve"> scheitern</t>
   </si>
@@ -98,12 +97,6 @@
     <t xml:space="preserve"> besitzen etw</t>
   </si>
   <si>
-    <t xml:space="preserve"> aus/wählen sich D etw</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> verkleinern etw / sich A</t>
-  </si>
-  <si>
     <t xml:space="preserve"> verüben etw</t>
   </si>
   <si>
@@ -143,9 +136,6 @@
     <t xml:space="preserve"> fahnden nach etw(D)</t>
   </si>
   <si>
-    <t xml:space="preserve"> befreunden sich A mit jm</t>
-  </si>
-  <si>
     <t xml:space="preserve"> ernennen jn zu etw(D)</t>
   </si>
   <si>
@@ -161,18 +151,12 @@
     <t xml:space="preserve"> berichtigen etw</t>
   </si>
   <si>
-    <t xml:space="preserve"> verpflichten sich A zu etw(D)</t>
-  </si>
-  <si>
     <t xml:space="preserve"> erfordern etw</t>
   </si>
   <si>
     <t xml:space="preserve"> operieren jn</t>
   </si>
   <si>
-    <t xml:space="preserve"> beurlauben sich A lassen</t>
-  </si>
-  <si>
     <t xml:space="preserve"> krank/schreiben jn</t>
   </si>
   <si>
@@ -206,15 +190,9 @@
     <t xml:space="preserve"> verstoßen gegen etw</t>
   </si>
   <si>
-    <t xml:space="preserve"> ein/mischen sich A in etw</t>
-  </si>
-  <si>
     <t xml:space="preserve"> ermöglichen etw</t>
   </si>
   <si>
-    <t xml:space="preserve"> etw(D) Einhalt gebieten</t>
-  </si>
-  <si>
     <t xml:space="preserve"> vertagen etw</t>
   </si>
   <si>
@@ -227,12 +205,6 @@
     <t xml:space="preserve"> ab/setzen etw</t>
   </si>
   <si>
-    <t xml:space="preserve"> verdreifachen etw / sich A</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> halbieren etw / sich A</t>
-  </si>
-  <si>
     <t xml:space="preserve"> faulenzen</t>
   </si>
   <si>
@@ -242,9 +214,6 @@
     <t xml:space="preserve"> votieren gegen etw / jn</t>
   </si>
   <si>
-    <t xml:space="preserve"> etw zum Ausdruck bringen</t>
-  </si>
-  <si>
     <t xml:space="preserve"> übernachten</t>
   </si>
   <si>
@@ -254,9 +223,6 @@
     <t xml:space="preserve"> erörtern etw</t>
   </si>
   <si>
-    <t xml:space="preserve"> vermehren sich A</t>
-  </si>
-  <si>
     <t xml:space="preserve"> stehlen etw</t>
   </si>
   <si>
@@ -299,9 +265,6 @@
     <t xml:space="preserve"> verzeihen jm</t>
   </si>
   <si>
-    <t xml:space="preserve"> ab/finden sich A mit etw(D)</t>
-  </si>
-  <si>
     <t xml:space="preserve"> bei/tragen zu etw(D)</t>
   </si>
   <si>
@@ -1055,18 +1018,6 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>纠</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
       <t>承担起对于</t>
     </r>
     <r>
@@ -1259,18 +1210,6 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>减轻</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
       <t>缩水</t>
     </r>
   </si>
@@ -1912,6 +1851,470 @@
   </si>
   <si>
     <t>gelingen</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> aus/wählen sich(D) etw</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> verkleinern etw / sich</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> befreunden sich mit jm</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>纠正</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> verpflichten sich zu etw(D)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>bereuen</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>scheitern</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>verleihen jm A</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>schweigen über</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ersparen</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>speichern</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ersetzen A durch A</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>auswählen sich(D) A</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>verüben</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>belegen</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Einwand gegen erheben</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>genehmigen</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>stellen A unter Beweis</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>fahnden nach</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ernennen jn zu</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>klagen über</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>berichtigen</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>erfordern</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>减轻（痛苦）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> ein/mischen sich in etw</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> verdreifachen etw / sich</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> halbieren etw / sich </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> lassen sich beurlauben</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> gebieten etw(D) Einhalt </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> bringen etw zum Ausdruck </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> vermehren sich</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>erhalten</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> ab/finden sich mit etw(D)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>einfrieren</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>lassen sich beurlauben</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>verlegen</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>normalisieren</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>verstoßen gegen</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>abziehen</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>appelieren jn ,etw zu tun</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>erörtern</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>vermehren sich</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ablösen</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>besetzen</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>finanzieren</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>aussetzen jn D</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>beschuldigen jn G</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>verzeihen jm</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>abfinden sich mit D</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>missbrauchen</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>auftauchen</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>beleidigen</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>vorwerfen jm</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>aussprechen sich gegen A</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>hindeuten auf</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">fälschen </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>schmerzen lindern</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>einmischen sich in</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">empfangen </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>eindämen</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>erteilen D eine Absage</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>verpflichten sich zu</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>operieren</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">begehen </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>vergleichen</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>streiken</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>dementieren</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>umgehen</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>einweihen</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ausbauen</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>vergeuden</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>misslingen</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>gelingen</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>gestehen</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>drohen jm</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>bereitstellen A</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>besitzen</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>anerkennen</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>überschwinden</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>unter D leiden</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>erschweren</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>manipulieren</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>erfinden</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>debattieren</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>anlocken</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>lockern</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>abhören</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>schrumpfen</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ermöglichen</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ausbleiben</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>absetzen</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>verdreifachen</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>halbieren</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>faulenzen</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>votieren gegen</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>bringen A zum Ausdruck</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>übernachten</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>vertiefen</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>stehlen</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>verschwinden</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>gelangen</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>renovieren</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>leihen jm A</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>einstellen</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>beitragen zu</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>entmutigen jn</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>beschlangen A</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ablaufen</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>begeben sich</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>verkleinern</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>krankschreiben</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>befreunden sich mit</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>gebieten D Einhalt</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>vertragen</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>billigen</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>umbringen</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1919,7 +2322,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1954,6 +2357,37 @@
       <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Consolas"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="Consolas"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1993,7 +2427,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2006,9 +2440,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -2016,6 +2447,51 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2332,943 +2808,2297 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C907DB9-27D9-1342-8F5D-BC0D0E0A533B}">
+  <dimension ref="A1:D103"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A65" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B76" sqref="B76"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.90625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="45.453125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A2" s="3">
+        <v>2</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A4" s="3">
+        <v>0</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A5" s="3">
+        <v>0</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A6" s="3">
+        <v>0</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A7" s="3">
+        <v>0</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A8" s="3">
+        <v>2</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A9" s="3">
+        <v>0</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A10" s="3">
+        <v>2</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A11" s="3">
+        <v>0</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A12" s="3">
+        <v>0</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A13" s="3">
+        <v>0</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A14" s="3">
+        <v>1</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A15" s="3">
+        <v>1</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A16" s="3">
+        <v>0</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A17" s="3">
+        <v>0</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A18" s="3">
+        <v>1</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A19" s="3">
+        <v>0</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A20" s="3">
+        <v>1</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A21" s="3">
+        <v>1</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.3">
+      <c r="A22" s="10">
+        <v>0</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A23" s="3">
+        <v>0</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A24" s="3">
+        <v>1</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A25" s="3">
+        <v>0</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A26" s="3">
+        <v>1</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A27" s="3">
+        <v>1</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A28" s="3">
+        <v>0</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A29" s="3">
+        <v>1</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A30" s="3">
+        <v>0</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A31" s="3">
+        <v>0</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A32" s="14">
+        <v>1</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A33" s="3">
+        <v>0</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A34" s="3">
+        <v>0</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A35" s="3">
+        <v>0</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A36" s="3">
+        <v>1</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A37" s="3">
+        <v>1</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A38" s="3">
+        <v>1</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A39" s="3">
+        <v>1</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A40" s="3">
+        <v>0</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A41" s="14">
+        <v>1</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A42" s="3">
+        <v>0</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A43" s="3">
+        <v>1</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A44" s="3">
+        <v>1</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A45" s="3">
+        <v>1</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A46" s="3">
+        <v>1</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A47" s="3">
+        <v>1</v>
+      </c>
+      <c r="B47" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A48" s="3">
+        <v>1</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="C48" s="7" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A49" s="3">
+        <v>1</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.3">
+      <c r="A50" s="11">
+        <v>1</v>
+      </c>
+      <c r="B50" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A51" s="3">
+        <v>0</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A52" s="3">
+        <v>0</v>
+      </c>
+      <c r="B52" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A53" s="3">
+        <v>0</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A54" s="3">
+        <v>0</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A55" s="3">
+        <v>0</v>
+      </c>
+      <c r="B55" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A56" s="3">
+        <v>0</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A57" s="3">
+        <v>0</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A58" s="3">
+        <v>0</v>
+      </c>
+      <c r="B58" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A59" s="3">
+        <v>0</v>
+      </c>
+      <c r="B59" s="15" t="s">
+        <v>213</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A60" s="3">
+        <v>0</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A61" s="3">
+        <v>0</v>
+      </c>
+      <c r="B61" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A62" s="3">
+        <v>0</v>
+      </c>
+      <c r="B62" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A63" s="3">
+        <v>0</v>
+      </c>
+      <c r="B63" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A64" s="3">
+        <v>0</v>
+      </c>
+      <c r="B64" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A65" s="3">
+        <v>0</v>
+      </c>
+      <c r="B65" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A66" s="3">
+        <v>0</v>
+      </c>
+      <c r="B66" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A67" s="3">
+        <v>0</v>
+      </c>
+      <c r="B67" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A68" s="3">
+        <v>0</v>
+      </c>
+      <c r="B68" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A69" s="3">
+        <v>0</v>
+      </c>
+      <c r="B69" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A70" s="3">
+        <v>0</v>
+      </c>
+      <c r="B70" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A71" s="3">
+        <v>0</v>
+      </c>
+      <c r="B71" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A72" s="3">
+        <v>0</v>
+      </c>
+      <c r="B72" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A73" s="3">
+        <v>0</v>
+      </c>
+      <c r="B73" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A74" s="3">
+        <v>0</v>
+      </c>
+      <c r="B74" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A75" s="3">
+        <v>0</v>
+      </c>
+      <c r="B75" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A76" s="3">
+        <v>0</v>
+      </c>
+      <c r="B76" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A77" s="3">
+        <v>0</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A78" s="3">
+        <v>0</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A79" s="3">
+        <v>0</v>
+      </c>
+      <c r="B79" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A80" s="3">
+        <v>0</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" ht="18" x14ac:dyDescent="0.3">
+      <c r="A81" s="3">
+        <v>0</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" ht="18" x14ac:dyDescent="0.3">
+      <c r="A82" s="3">
+        <v>0</v>
+      </c>
+      <c r="B82" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D82" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" ht="18" x14ac:dyDescent="0.3">
+      <c r="A83" s="3">
+        <v>0</v>
+      </c>
+      <c r="B83" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" ht="18" x14ac:dyDescent="0.3">
+      <c r="A84" s="3">
+        <v>0</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" ht="18" x14ac:dyDescent="0.3">
+      <c r="A85" s="3">
+        <v>0</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" ht="18" x14ac:dyDescent="0.3">
+      <c r="A86" s="3">
+        <v>0</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" ht="18" x14ac:dyDescent="0.3">
+      <c r="A87" s="3">
+        <v>0</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" ht="18" x14ac:dyDescent="0.3">
+      <c r="A88" s="3">
+        <v>0</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" ht="18" x14ac:dyDescent="0.3">
+      <c r="A89" s="3">
+        <v>0</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" ht="18" x14ac:dyDescent="0.3">
+      <c r="A90" s="3">
+        <v>0</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" ht="18" x14ac:dyDescent="0.3">
+      <c r="A91" s="3">
+        <v>0</v>
+      </c>
+      <c r="B91" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" ht="18" x14ac:dyDescent="0.3">
+      <c r="A92" s="3">
+        <v>0</v>
+      </c>
+      <c r="B92" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="C92" s="7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" ht="18" x14ac:dyDescent="0.3">
+      <c r="A93" s="3">
+        <v>0</v>
+      </c>
+      <c r="B93" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" ht="18" x14ac:dyDescent="0.3">
+      <c r="A94" s="3">
+        <v>0</v>
+      </c>
+      <c r="B94" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="C94" s="7" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" ht="18" x14ac:dyDescent="0.3">
+      <c r="A95" s="3">
+        <v>0</v>
+      </c>
+      <c r="B95" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="C95" s="7" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" ht="18" x14ac:dyDescent="0.3">
+      <c r="A96" s="3">
+        <v>0</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C96" s="16" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A97" s="3">
+        <v>0</v>
+      </c>
+      <c r="B97" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A98" s="3">
+        <v>0</v>
+      </c>
+      <c r="B98" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A99" s="3">
+        <v>0</v>
+      </c>
+      <c r="B99" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A100" s="3">
+        <v>0</v>
+      </c>
+      <c r="B100" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A101" s="3">
+        <v>0</v>
+      </c>
+      <c r="B101" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A102" s="3">
+        <v>0</v>
+      </c>
+      <c r="B102" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A103" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CA11758-A84F-4704-A7B8-C62D897701E7}">
   <dimension ref="A1:C103"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="107" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="C100" sqref="C100"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="45.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.6328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36.453125" style="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="19">
+    <row r="1" spans="1:3" ht="18" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A2" s="3">
+        <v>3</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A3" s="3">
+        <v>3</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="C3" s="19" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A5" s="3">
+        <v>3</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A6" s="3">
+        <v>3</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A7" s="3">
+        <v>2</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="C7" s="19" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A8" s="3">
+        <v>2</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C8" s="19" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A9" s="3">
+        <v>2</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A10" s="3">
+        <v>2</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A11" s="3">
+        <v>2</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A12" s="3">
+        <v>2</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C12" s="19" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A13" s="14">
+        <v>2</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="C13" s="19" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A14" s="3">
+        <v>2</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C14" s="19" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A15" s="3">
+        <v>2</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="C15" s="19" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A16" s="3">
+        <v>2</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="C16" s="19" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A17" s="3">
+        <v>2</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="C17" s="19" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A18" s="3">
+        <v>2</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C18" s="19" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A19" s="3">
+        <v>2</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="C19" s="19" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A20" s="3">
+        <v>2</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="C20" s="19" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A21" s="3">
+        <v>2</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="C21" s="19" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A22" s="3">
+        <v>1</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C22" s="21" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A23" s="3">
+        <v>1</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C23" s="19" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A24" s="3">
+        <v>1</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="C24" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A25" s="3">
+        <v>1</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C25" s="19" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A26" s="3">
+        <v>1</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C26" s="20" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A27" s="3">
+        <v>1</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="C27" s="19" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A28" s="3">
+        <v>1</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="C28" s="19" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A29" s="14">
+        <v>1</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="C29" s="19" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A30" s="3">
+        <v>1</v>
+      </c>
+      <c r="B30" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="C30" s="20" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A31" s="3">
+        <v>1</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C31" s="19" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A32" s="3">
+        <v>1</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="C32" s="19" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A33" s="10">
+        <v>1</v>
+      </c>
+      <c r="B33" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="C33" s="20" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A34" s="3">
+        <v>1</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="C34" s="19" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A35" s="3">
+        <v>1</v>
+      </c>
+      <c r="B35" s="15" t="s">
+        <v>213</v>
+      </c>
+      <c r="C35" s="19" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A36" s="3">
+        <v>1</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="C36" s="19" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A37" s="3">
+        <v>1</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="C37" s="19" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A38" s="3">
+        <v>1</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="C38" s="19" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A39" s="3">
+        <v>1</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="C39" s="19" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A40" s="3">
+        <v>1</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="C40" s="19" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A41" s="3">
+        <v>1</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="C41" s="19" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A42" s="3">
+        <v>1</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C42" s="19" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A43" s="3">
+        <v>1</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C43" s="19" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A44" s="3">
+        <v>1</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C44" s="19" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A45" s="3">
+        <v>1</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C45" s="19" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A46" s="3">
+        <v>1</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="C46" s="19" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A47" s="3">
+        <v>1</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="C47" s="19" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A48" s="3">
+        <v>1</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="C48" s="19" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A49" s="3">
+        <v>1</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="C49" s="19" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A50" s="11">
+        <v>1</v>
+      </c>
+      <c r="B50" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="C50" s="21" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A51" s="3">
+        <v>1</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="C51" s="19" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A52" s="3">
+        <v>1</v>
+      </c>
+      <c r="B52" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="C52" s="19" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A53" s="3">
+        <v>1</v>
+      </c>
+      <c r="B53" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="C53" s="17" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A54" s="3">
+        <v>1</v>
+      </c>
+      <c r="B54" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="C54" s="19" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A55" s="10">
+        <v>0</v>
+      </c>
+      <c r="B55" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="C55" s="20" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A56" s="3">
+        <v>0</v>
+      </c>
+      <c r="B56" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="C56" s="19" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A57" s="3">
+        <v>0</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C57" s="19" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A58" s="3">
+        <v>0</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C58" s="19" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A59" s="3">
+        <v>0</v>
+      </c>
+      <c r="B59" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="C59" s="19" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A60" s="3">
+        <v>0</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C60" s="19" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A61" s="3">
+        <v>0</v>
+      </c>
+      <c r="B61" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="19">
-      <c r="A2" s="3"/>
-      <c r="B2" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="19">
-      <c r="A3" s="3"/>
-      <c r="B3" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="19">
-      <c r="A4" s="3"/>
-      <c r="B4" s="7" t="s">
+      <c r="C61" s="19" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A62" s="3">
+        <v>0</v>
+      </c>
+      <c r="B62" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="19">
-      <c r="A5" s="3"/>
-      <c r="B5" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="19">
-      <c r="A6" s="3"/>
-      <c r="B6" s="7" t="s">
+      <c r="C62" s="19" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A63" s="3">
+        <v>0</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C63" s="19" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A64" s="3">
+        <v>0</v>
+      </c>
+      <c r="B64" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="19">
-      <c r="A7" s="3"/>
-      <c r="B7" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="19">
-      <c r="A8" s="3"/>
-      <c r="B8" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="19">
-      <c r="A9" s="3"/>
-      <c r="B9" s="2" t="s">
+      <c r="C64" s="19" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A65" s="10">
+        <v>0</v>
+      </c>
+      <c r="B65" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="19">
-      <c r="A10" s="3"/>
-      <c r="B10" s="7" t="s">
+      <c r="C65" s="20" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A66" s="3">
+        <v>0</v>
+      </c>
+      <c r="B66" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="19">
-      <c r="A11" s="3"/>
-      <c r="B11" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="19">
-      <c r="A12" s="3"/>
-      <c r="B12" s="2" t="s">
+      <c r="C66" s="19" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A67" s="3">
+        <v>0</v>
+      </c>
+      <c r="B67" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="19">
-      <c r="A13" s="3"/>
-      <c r="B13" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="19">
-      <c r="A14" s="3"/>
-      <c r="B14" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="19">
-      <c r="A15" s="3"/>
-      <c r="B15" s="2" t="s">
+      <c r="C67" s="19" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A68" s="3">
+        <v>0</v>
+      </c>
+      <c r="B68" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="19">
-      <c r="A16" s="3"/>
-      <c r="B16" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="19">
-      <c r="A17" s="3"/>
-      <c r="B17" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="19">
-      <c r="A18" s="3"/>
-      <c r="B18" s="7" t="s">
+      <c r="C68" s="19" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A69" s="3">
+        <v>0</v>
+      </c>
+      <c r="B69" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="C18" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="19">
-      <c r="A19" s="3"/>
-      <c r="B19" s="2" t="s">
+      <c r="C69" s="19" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A70" s="3">
+        <v>0</v>
+      </c>
+      <c r="B70" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C19" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="19">
-      <c r="A20" s="3"/>
-      <c r="B20" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="19">
-      <c r="A21" s="3"/>
-      <c r="B21" s="2" t="s">
+      <c r="C70" s="19" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A71" s="3">
+        <v>0</v>
+      </c>
+      <c r="B71" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="C21" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" s="6" customFormat="1" ht="19">
-      <c r="A22" s="4"/>
-      <c r="B22" s="5" t="s">
+      <c r="C71" s="19" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A72" s="3">
+        <v>0</v>
+      </c>
+      <c r="B72" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="C22" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="19">
-      <c r="A23" s="3"/>
-      <c r="B23" s="2" t="s">
+      <c r="C72" s="19" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A73" s="3">
+        <v>0</v>
+      </c>
+      <c r="B73" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="C23" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="19">
-      <c r="A24" s="3"/>
-      <c r="B24" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="19">
-      <c r="A25" s="3"/>
-      <c r="B25" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="19">
-      <c r="A26" s="3"/>
-      <c r="B26" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="19">
-      <c r="A27" s="3"/>
-      <c r="B27" s="2" t="s">
+      <c r="C73" s="19" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A74" s="3">
+        <v>0</v>
+      </c>
+      <c r="B74" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="C27" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="19">
-      <c r="A28" s="3"/>
-      <c r="B28" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="19">
-      <c r="A29" s="3"/>
-      <c r="B29" s="2" t="s">
+      <c r="C74" s="19" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A75" s="3">
+        <v>0</v>
+      </c>
+      <c r="B75" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="C29" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="19">
-      <c r="A30" s="3"/>
-      <c r="B30" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="19">
-      <c r="A31" s="3"/>
-      <c r="B31" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="19">
-      <c r="A32" s="3"/>
-      <c r="B32" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="19">
-      <c r="A33" s="3"/>
-      <c r="B33" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="19">
-      <c r="A34" s="3"/>
-      <c r="B34" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="19">
-      <c r="A35" s="3"/>
-      <c r="B35" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="19">
-      <c r="A36" s="3"/>
-      <c r="B36" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" ht="19">
-      <c r="A37" s="3"/>
-      <c r="B37" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" ht="19">
-      <c r="A38" s="3"/>
-      <c r="B38" s="2" t="s">
+      <c r="C75" s="19" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A76" s="3">
+        <v>0</v>
+      </c>
+      <c r="B76" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="C38" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" ht="19">
-      <c r="A39" s="3"/>
-      <c r="B39" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" ht="19">
-      <c r="A40" s="3"/>
-      <c r="B40" s="2" t="s">
+      <c r="C76" s="19" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A77" s="3">
+        <v>0</v>
+      </c>
+      <c r="B77" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="C40" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" ht="19">
-      <c r="A41" s="3"/>
-      <c r="B41" s="2" t="s">
+      <c r="C77" s="19" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A78" s="3">
+        <v>0</v>
+      </c>
+      <c r="B78" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="C41" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" ht="19">
-      <c r="A42" s="3"/>
-      <c r="B42" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" ht="19">
-      <c r="A43" s="3"/>
-      <c r="B43" s="2" t="s">
+      <c r="C78" s="19" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A79" s="3">
+        <v>0</v>
+      </c>
+      <c r="B79" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="C43" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" ht="19">
-      <c r="A44" s="3"/>
-      <c r="B44" s="2" t="s">
+      <c r="C79" s="19" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A80" s="3">
+        <v>0</v>
+      </c>
+      <c r="B80" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="C44" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" ht="19">
-      <c r="A45" s="3"/>
-      <c r="B45" s="2" t="s">
+      <c r="C80" s="19" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A81" s="3">
+        <v>0</v>
+      </c>
+      <c r="B81" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="C45" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" ht="19">
-      <c r="A46" s="3"/>
-      <c r="B46" s="2" t="s">
+      <c r="C81" s="19" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A82" s="3">
+        <v>0</v>
+      </c>
+      <c r="B82" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="C46" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" ht="19">
-      <c r="A47" s="3"/>
-      <c r="B47" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" ht="19">
-      <c r="A48" s="3"/>
-      <c r="B48" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" ht="19">
-      <c r="A49" s="3"/>
-      <c r="B49" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" ht="19">
-      <c r="A50" s="3"/>
-      <c r="B50" s="2" t="s">
+      <c r="C82" s="19" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A83" s="3">
+        <v>0</v>
+      </c>
+      <c r="B83" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="C50" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" ht="19">
-      <c r="A51" s="3"/>
-      <c r="B51" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" ht="19">
-      <c r="A52" s="3"/>
-      <c r="B52" s="2" t="s">
+      <c r="C83" s="19" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A84" s="3">
+        <v>0</v>
+      </c>
+      <c r="B84" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="C52" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" ht="19">
-      <c r="A53" s="3"/>
-      <c r="B53" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" ht="19">
-      <c r="A54" s="3"/>
-      <c r="B54" s="2" t="s">
+      <c r="C84" s="19" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A85" s="3">
+        <v>0</v>
+      </c>
+      <c r="B85" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="C54" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" ht="19">
-      <c r="A55" s="3"/>
-      <c r="B55" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" ht="19">
-      <c r="A56" s="3"/>
-      <c r="B56" s="2" t="s">
+      <c r="C85" s="19" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A86" s="3">
+        <v>0</v>
+      </c>
+      <c r="B86" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="C56" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" ht="19">
-      <c r="A57" s="3"/>
-      <c r="B57" s="2" t="s">
+      <c r="C86" s="19" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A87" s="3">
+        <v>0</v>
+      </c>
+      <c r="B87" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="C57" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" ht="19">
-      <c r="A58" s="3"/>
-      <c r="B58" s="2" t="s">
+      <c r="C87" s="19" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A88" s="3">
+        <v>0</v>
+      </c>
+      <c r="B88" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="C58" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" ht="19">
-      <c r="A59" s="3"/>
-      <c r="B59" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" ht="19">
-      <c r="A60" s="3"/>
-      <c r="B60" s="2" t="s">
+      <c r="C88" s="19" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A89" s="3">
+        <v>0</v>
+      </c>
+      <c r="B89" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="C60" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" ht="19">
-      <c r="A61" s="3"/>
-      <c r="B61" s="2" t="s">
+      <c r="C89" s="19" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A90" s="3">
+        <v>0</v>
+      </c>
+      <c r="B90" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="C61" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" ht="19">
-      <c r="A62" s="3"/>
-      <c r="B62" s="2" t="s">
+      <c r="C90" s="19" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A91" s="3">
+        <v>0</v>
+      </c>
+      <c r="B91" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="C62" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" ht="19">
-      <c r="A63" s="3"/>
-      <c r="B63" s="2" t="s">
+      <c r="C91" s="19" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A92" s="3">
+        <v>0</v>
+      </c>
+      <c r="B92" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="C63" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" ht="19">
-      <c r="A64" s="3"/>
-      <c r="B64" s="2" t="s">
+      <c r="C92" s="19" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A93" s="3">
+        <v>0</v>
+      </c>
+      <c r="B93" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="C64" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" ht="19">
-      <c r="A65" s="3"/>
-      <c r="B65" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" ht="19">
-      <c r="A66" s="3"/>
-      <c r="B66" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="C66" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" ht="19">
-      <c r="A67" s="3"/>
-      <c r="B67" s="2" t="s">
+      <c r="C93" s="19" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A94" s="3">
+        <v>0</v>
+      </c>
+      <c r="B94" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="C67" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" ht="19">
-      <c r="A68" s="3"/>
-      <c r="B68" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="C68" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" ht="19">
-      <c r="A69" s="3"/>
-      <c r="B69" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" ht="19">
-      <c r="A70" s="3"/>
-      <c r="B70" s="2" t="s">
+      <c r="C94" s="19" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A95" s="3">
+        <v>0</v>
+      </c>
+      <c r="B95" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="C70" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" ht="19">
-      <c r="A71" s="3"/>
-      <c r="B71" s="2" t="s">
+      <c r="C95" s="19" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A96" s="3">
+        <v>0</v>
+      </c>
+      <c r="B96" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="C71" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" ht="19">
-      <c r="A72" s="3"/>
-      <c r="B72" s="2" t="s">
+      <c r="C96" s="19" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A97" s="3">
+        <v>0</v>
+      </c>
+      <c r="B97" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="C72" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" ht="19">
-      <c r="A73" s="3"/>
-      <c r="B73" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="C73" s="2" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" ht="19">
-      <c r="A74" s="3"/>
-      <c r="B74" s="2" t="s">
+      <c r="C97" s="19" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A98" s="3">
+        <v>0</v>
+      </c>
+      <c r="B98" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="C74" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" ht="19">
-      <c r="A75" s="3"/>
-      <c r="B75" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="C75" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" ht="19">
-      <c r="A76" s="3"/>
-      <c r="B76" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="C76" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" ht="19">
-      <c r="A77" s="3"/>
-      <c r="B77" s="2" t="s">
+      <c r="C98" s="19" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A99" s="3">
+        <v>0</v>
+      </c>
+      <c r="B99" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="C77" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" ht="19">
-      <c r="A78" s="3"/>
-      <c r="B78" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="C78" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" ht="19">
-      <c r="A79" s="3"/>
-      <c r="B79" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="C79" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" ht="19">
-      <c r="A80" s="3"/>
-      <c r="B80" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="C80" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" ht="19">
-      <c r="A81" s="3"/>
-      <c r="B81" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="C81" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" ht="19">
-      <c r="A82" s="3"/>
-      <c r="B82" s="2" t="s">
+      <c r="C99" s="19" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A100" s="3">
+        <v>0</v>
+      </c>
+      <c r="B100" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="C82" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" ht="19">
-      <c r="A83" s="3"/>
-      <c r="B83" s="2" t="s">
+      <c r="C100" s="19" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A101" s="3">
+        <v>0</v>
+      </c>
+      <c r="B101" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="C83" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" ht="19">
-      <c r="A84" s="3"/>
-      <c r="B84" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="C84" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" ht="19">
-      <c r="A85" s="3"/>
-      <c r="B85" s="2" t="s">
+      <c r="C101" s="19" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A102" s="3">
+        <v>0</v>
+      </c>
+      <c r="B102" s="6" t="s">
         <v>182</v>
       </c>
-      <c r="C85" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" ht="19">
-      <c r="A86" s="3"/>
-      <c r="B86" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="C86" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" ht="19">
-      <c r="A87" s="3"/>
-      <c r="B87" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="C87" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" ht="19">
-      <c r="A88" s="3"/>
-      <c r="B88" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="C88" s="2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" ht="19">
-      <c r="A89" s="3"/>
-      <c r="B89" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="C89" s="2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" ht="19">
-      <c r="A90" s="3"/>
-      <c r="B90" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="C90" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" ht="19">
-      <c r="A91" s="3"/>
-      <c r="B91" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="C91" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" ht="19">
-      <c r="A92" s="3"/>
-      <c r="B92" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="C92" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" ht="19">
-      <c r="A93" s="3"/>
-      <c r="B93" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="C93" s="2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" ht="19">
-      <c r="A94" s="3"/>
-      <c r="B94" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="C94" s="2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" ht="19">
-      <c r="A95" s="3"/>
-      <c r="B95" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="C95" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" ht="19">
-      <c r="A96" s="3"/>
-      <c r="B96" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="C96" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" ht="19">
-      <c r="A97" s="3"/>
-      <c r="B97" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="C97" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" ht="19">
-      <c r="A98" s="3"/>
-      <c r="B98" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="C98" s="2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" ht="19">
-      <c r="A99" s="3"/>
-      <c r="B99" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="C99" s="2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" ht="19">
-      <c r="A100" s="3"/>
-      <c r="B100" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="C100" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" ht="19">
-      <c r="A101" s="3"/>
-      <c r="B101" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="C101" s="2" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" ht="19">
-      <c r="A102" s="3"/>
-      <c r="B102" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="C102" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3">
-      <c r="A103" s="1"/>
+      <c r="C102" s="19" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="C103" s="17"/>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C103">
+    <sortCondition descending="1" ref="A1"/>
+  </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/德福词汇/德福词汇2018.xlsx
+++ b/德福词汇/德福词汇2018.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -10,13 +10,13 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63693EE3-216D-494D-9E10-B48532CF3291}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14460" activeTab="1" xr2:uid="{A692899E-3455-7B4B-BA89-9FB5ABF0B340}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14460" xr2:uid="{A692899E-3455-7B4B-BA89-9FB5ABF0B340}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,10 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -2139,10 +2142,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>gelingen</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>gestehen</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -2349,7 +2348,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2847,18 +2846,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C907DB9-27D9-1342-8F5D-BC0D0E0A533B}">
   <dimension ref="A1:D103"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="10.79296875" defaultRowHeight="15.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="45.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.9609375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.79296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="45.55078125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="19">
+    <row r="1" spans="1:3" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>87</v>
       </c>
@@ -2869,7 +2868,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="19">
+    <row r="2" spans="1:3" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
         <v>2</v>
       </c>
@@ -2880,7 +2879,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="19">
+    <row r="3" spans="1:3" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -2891,7 +2890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="19">
+    <row r="4" spans="1:3" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>0</v>
       </c>
@@ -2902,7 +2901,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="19">
+    <row r="5" spans="1:3" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>0</v>
       </c>
@@ -2913,7 +2912,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="19">
+    <row r="6" spans="1:3" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>0</v>
       </c>
@@ -2924,7 +2923,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="19">
+    <row r="7" spans="1:3" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>0</v>
       </c>
@@ -2935,7 +2934,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="19">
+    <row r="8" spans="1:3" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>2</v>
       </c>
@@ -2946,7 +2945,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="19">
+    <row r="9" spans="1:3" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>0</v>
       </c>
@@ -2957,7 +2956,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="19">
+    <row r="10" spans="1:3" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>2</v>
       </c>
@@ -2968,7 +2967,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="19">
+    <row r="11" spans="1:3" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>0</v>
       </c>
@@ -2979,7 +2978,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="19">
+    <row r="12" spans="1:3" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>0</v>
       </c>
@@ -2990,7 +2989,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="19">
+    <row r="13" spans="1:3" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>0</v>
       </c>
@@ -3001,7 +3000,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="19">
+    <row r="14" spans="1:3" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>1</v>
       </c>
@@ -3012,7 +3011,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="19">
+    <row r="15" spans="1:3" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>1</v>
       </c>
@@ -3023,7 +3022,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="19">
+    <row r="16" spans="1:3" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>0</v>
       </c>
@@ -3034,7 +3033,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="19">
+    <row r="17" spans="1:3" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>0</v>
       </c>
@@ -3045,7 +3044,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="19">
+    <row r="18" spans="1:3" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>1</v>
       </c>
@@ -3056,7 +3055,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="19">
+    <row r="19" spans="1:3" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>0</v>
       </c>
@@ -3067,7 +3066,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="19">
+    <row r="20" spans="1:3" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>1</v>
       </c>
@@ -3078,7 +3077,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="19">
+    <row r="21" spans="1:3" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>1</v>
       </c>
@@ -3089,7 +3088,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="1:3" s="5" customFormat="1" ht="19">
+    <row r="22" spans="1:3" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A22" s="10">
         <v>0</v>
       </c>
@@ -3100,7 +3099,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="19">
+    <row r="23" spans="1:3" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>0</v>
       </c>
@@ -3111,7 +3110,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="19">
+    <row r="24" spans="1:3" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>1</v>
       </c>
@@ -3122,7 +3121,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="19">
+    <row r="25" spans="1:3" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>0</v>
       </c>
@@ -3133,7 +3132,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="19">
+    <row r="26" spans="1:3" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>1</v>
       </c>
@@ -3144,7 +3143,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="19">
+    <row r="27" spans="1:3" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <v>1</v>
       </c>
@@ -3155,7 +3154,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="19">
+    <row r="28" spans="1:3" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
         <v>0</v>
       </c>
@@ -3166,7 +3165,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="19">
+    <row r="29" spans="1:3" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <v>1</v>
       </c>
@@ -3177,7 +3176,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="19">
+    <row r="30" spans="1:3" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
         <v>0</v>
       </c>
@@ -3188,7 +3187,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="19">
+    <row r="31" spans="1:3" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
         <v>0</v>
       </c>
@@ -3199,7 +3198,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="19">
+    <row r="32" spans="1:3" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A32" s="14">
         <v>1</v>
       </c>
@@ -3210,7 +3209,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="19">
+    <row r="33" spans="1:3" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A33" s="3">
         <v>0</v>
       </c>
@@ -3221,7 +3220,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="19">
+    <row r="34" spans="1:3" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A34" s="3">
         <v>0</v>
       </c>
@@ -3232,7 +3231,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="19">
+    <row r="35" spans="1:3" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A35" s="3">
         <v>0</v>
       </c>
@@ -3243,7 +3242,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="19">
+    <row r="36" spans="1:3" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A36" s="3">
         <v>1</v>
       </c>
@@ -3254,7 +3253,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="19">
+    <row r="37" spans="1:3" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A37" s="3">
         <v>1</v>
       </c>
@@ -3265,7 +3264,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="19">
+    <row r="38" spans="1:3" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A38" s="3">
         <v>1</v>
       </c>
@@ -3276,7 +3275,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="19">
+    <row r="39" spans="1:3" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A39" s="3">
         <v>1</v>
       </c>
@@ -3287,7 +3286,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="19">
+    <row r="40" spans="1:3" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A40" s="3">
         <v>0</v>
       </c>
@@ -3298,7 +3297,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="19">
+    <row r="41" spans="1:3" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A41" s="14">
         <v>1</v>
       </c>
@@ -3309,7 +3308,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="19">
+    <row r="42" spans="1:3" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A42" s="3">
         <v>0</v>
       </c>
@@ -3320,7 +3319,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="19">
+    <row r="43" spans="1:3" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A43" s="3">
         <v>1</v>
       </c>
@@ -3331,7 +3330,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="19">
+    <row r="44" spans="1:3" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A44" s="3">
         <v>1</v>
       </c>
@@ -3342,7 +3341,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="19">
+    <row r="45" spans="1:3" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A45" s="3">
         <v>1</v>
       </c>
@@ -3353,7 +3352,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="19">
+    <row r="46" spans="1:3" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A46" s="3">
         <v>1</v>
       </c>
@@ -3364,7 +3363,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="19">
+    <row r="47" spans="1:3" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A47" s="3">
         <v>1</v>
       </c>
@@ -3375,7 +3374,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="19">
+    <row r="48" spans="1:3" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A48" s="3">
         <v>1</v>
       </c>
@@ -3386,7 +3385,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="19">
+    <row r="49" spans="1:3" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A49" s="3">
         <v>1</v>
       </c>
@@ -3397,7 +3396,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="50" spans="1:3" s="5" customFormat="1" ht="19">
+    <row r="50" spans="1:3" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A50" s="11">
         <v>1</v>
       </c>
@@ -3408,7 +3407,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="19">
+    <row r="51" spans="1:3" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A51" s="3">
         <v>0</v>
       </c>
@@ -3419,7 +3418,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="52" spans="1:3" ht="19">
+    <row r="52" spans="1:3" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A52" s="3">
         <v>0</v>
       </c>
@@ -3430,7 +3429,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="19">
+    <row r="53" spans="1:3" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A53" s="3">
         <v>0</v>
       </c>
@@ -3441,7 +3440,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="54" spans="1:3" ht="19">
+    <row r="54" spans="1:3" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A54" s="3">
         <v>0</v>
       </c>
@@ -3452,7 +3451,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="55" spans="1:3" ht="19">
+    <row r="55" spans="1:3" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A55" s="3">
         <v>0</v>
       </c>
@@ -3463,7 +3462,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="56" spans="1:3" ht="19">
+    <row r="56" spans="1:3" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A56" s="3">
         <v>0</v>
       </c>
@@ -3474,7 +3473,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="57" spans="1:3" ht="19">
+    <row r="57" spans="1:3" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A57" s="3">
         <v>0</v>
       </c>
@@ -3485,7 +3484,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="58" spans="1:3" ht="19">
+    <row r="58" spans="1:3" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A58" s="3">
         <v>0</v>
       </c>
@@ -3496,7 +3495,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="59" spans="1:3" ht="19">
+    <row r="59" spans="1:3" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A59" s="3">
         <v>0</v>
       </c>
@@ -3507,7 +3506,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="60" spans="1:3" ht="19">
+    <row r="60" spans="1:3" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A60" s="3">
         <v>0</v>
       </c>
@@ -3518,7 +3517,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="61" spans="1:3" ht="19">
+    <row r="61" spans="1:3" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A61" s="3">
         <v>0</v>
       </c>
@@ -3529,7 +3528,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="62" spans="1:3" ht="19">
+    <row r="62" spans="1:3" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A62" s="3">
         <v>0</v>
       </c>
@@ -3540,7 +3539,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="63" spans="1:3" ht="19">
+    <row r="63" spans="1:3" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A63" s="3">
         <v>0</v>
       </c>
@@ -3551,7 +3550,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="64" spans="1:3" ht="19">
+    <row r="64" spans="1:3" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A64" s="3">
         <v>0</v>
       </c>
@@ -3562,7 +3561,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="65" spans="1:3" ht="19">
+    <row r="65" spans="1:3" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A65" s="3">
         <v>0</v>
       </c>
@@ -3573,7 +3572,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="66" spans="1:3" ht="19">
+    <row r="66" spans="1:3" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A66" s="3">
         <v>0</v>
       </c>
@@ -3584,7 +3583,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="67" spans="1:3" ht="19">
+    <row r="67" spans="1:3" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A67" s="3">
         <v>0</v>
       </c>
@@ -3595,7 +3594,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="68" spans="1:3" ht="19">
+    <row r="68" spans="1:3" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A68" s="3">
         <v>0</v>
       </c>
@@ -3606,7 +3605,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="69" spans="1:3" ht="19">
+    <row r="69" spans="1:3" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A69" s="3">
         <v>0</v>
       </c>
@@ -3617,7 +3616,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="70" spans="1:3" ht="19">
+    <row r="70" spans="1:3" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A70" s="3">
         <v>0</v>
       </c>
@@ -3628,7 +3627,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="71" spans="1:3" ht="19">
+    <row r="71" spans="1:3" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A71" s="3">
         <v>0</v>
       </c>
@@ -3639,7 +3638,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="72" spans="1:3" ht="19">
+    <row r="72" spans="1:3" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A72" s="3">
         <v>0</v>
       </c>
@@ -3650,7 +3649,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="73" spans="1:3" ht="19">
+    <row r="73" spans="1:3" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A73" s="3">
         <v>0</v>
       </c>
@@ -3661,7 +3660,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="74" spans="1:3" ht="19">
+    <row r="74" spans="1:3" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A74" s="3">
         <v>0</v>
       </c>
@@ -3672,7 +3671,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="75" spans="1:3" ht="19">
+    <row r="75" spans="1:3" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A75" s="3">
         <v>0</v>
       </c>
@@ -3683,7 +3682,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="76" spans="1:3" ht="19">
+    <row r="76" spans="1:3" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A76" s="3">
         <v>0</v>
       </c>
@@ -3694,7 +3693,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="77" spans="1:3" ht="19">
+    <row r="77" spans="1:3" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A77" s="3">
         <v>0</v>
       </c>
@@ -3705,7 +3704,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="78" spans="1:3" ht="19">
+    <row r="78" spans="1:3" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A78" s="3">
         <v>0</v>
       </c>
@@ -3716,7 +3715,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="79" spans="1:3" ht="19">
+    <row r="79" spans="1:3" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A79" s="3">
         <v>0</v>
       </c>
@@ -3727,7 +3726,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="80" spans="1:3" ht="19">
+    <row r="80" spans="1:3" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A80" s="3">
         <v>0</v>
       </c>
@@ -3738,7 +3737,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="81" spans="1:4" ht="19">
+    <row r="81" spans="1:4" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A81" s="3">
         <v>0</v>
       </c>
@@ -3749,7 +3748,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="82" spans="1:4" ht="19">
+    <row r="82" spans="1:4" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A82" s="3">
         <v>0</v>
       </c>
@@ -3763,7 +3762,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="83" spans="1:4" ht="19">
+    <row r="83" spans="1:4" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A83" s="3">
         <v>0</v>
       </c>
@@ -3774,7 +3773,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="84" spans="1:4" ht="19">
+    <row r="84" spans="1:4" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A84" s="3">
         <v>0</v>
       </c>
@@ -3782,10 +3781,10 @@
         <v>166</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" ht="19">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A85" s="3">
         <v>0</v>
       </c>
@@ -3796,7 +3795,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="86" spans="1:4" ht="19">
+    <row r="86" spans="1:4" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A86" s="3">
         <v>0</v>
       </c>
@@ -3807,7 +3806,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="87" spans="1:4" ht="19">
+    <row r="87" spans="1:4" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A87" s="3">
         <v>0</v>
       </c>
@@ -3818,7 +3817,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="88" spans="1:4" ht="19">
+    <row r="88" spans="1:4" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A88" s="3">
         <v>0</v>
       </c>
@@ -3829,7 +3828,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="89" spans="1:4" ht="19">
+    <row r="89" spans="1:4" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A89" s="3">
         <v>0</v>
       </c>
@@ -3840,7 +3839,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="90" spans="1:4" ht="19">
+    <row r="90" spans="1:4" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A90" s="3">
         <v>0</v>
       </c>
@@ -3851,7 +3850,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="91" spans="1:4" ht="19">
+    <row r="91" spans="1:4" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A91" s="3">
         <v>0</v>
       </c>
@@ -3862,7 +3861,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="92" spans="1:4" ht="19">
+    <row r="92" spans="1:4" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A92" s="3">
         <v>0</v>
       </c>
@@ -3873,7 +3872,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="93" spans="1:4" ht="19">
+    <row r="93" spans="1:4" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A93" s="3">
         <v>0</v>
       </c>
@@ -3884,7 +3883,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="94" spans="1:4" ht="19">
+    <row r="94" spans="1:4" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A94" s="3">
         <v>0</v>
       </c>
@@ -3895,7 +3894,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="95" spans="1:4" ht="19">
+    <row r="95" spans="1:4" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A95" s="3">
         <v>0</v>
       </c>
@@ -3906,7 +3905,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="96" spans="1:4" ht="19">
+    <row r="96" spans="1:4" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A96" s="3">
         <v>0</v>
       </c>
@@ -3917,7 +3916,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="97" spans="1:3" ht="19">
+    <row r="97" spans="1:3" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A97" s="3">
         <v>0</v>
       </c>
@@ -3928,7 +3927,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="98" spans="1:3" ht="19">
+    <row r="98" spans="1:3" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A98" s="3">
         <v>0</v>
       </c>
@@ -3939,7 +3938,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="99" spans="1:3" ht="19">
+    <row r="99" spans="1:3" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A99" s="3">
         <v>0</v>
       </c>
@@ -3950,7 +3949,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="100" spans="1:3" ht="19">
+    <row r="100" spans="1:3" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A100" s="3">
         <v>0</v>
       </c>
@@ -3961,7 +3960,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="101" spans="1:3" ht="19">
+    <row r="101" spans="1:3" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A101" s="3">
         <v>0</v>
       </c>
@@ -3972,7 +3971,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="102" spans="1:3" ht="19">
+    <row r="102" spans="1:3" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A102" s="3">
         <v>0</v>
       </c>
@@ -3983,7 +3982,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="103" spans="1:3">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A103" s="1"/>
     </row>
   </sheetData>
@@ -3997,17 +3996,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CA11758-A84F-4704-A7B8-C62D897701E7}">
   <dimension ref="A1:C103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="15.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="36.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.65625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36.53515625" style="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="19">
+    <row r="1" spans="1:3" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>87</v>
       </c>
@@ -4018,7 +4017,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="19">
+    <row r="2" spans="1:3" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
         <v>3</v>
       </c>
@@ -4029,7 +4028,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="19">
+    <row r="3" spans="1:3" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>3</v>
       </c>
@@ -4040,7 +4039,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="19">
+    <row r="4" spans="1:3" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -4051,7 +4050,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="19">
+    <row r="5" spans="1:3" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>3</v>
       </c>
@@ -4062,18 +4061,18 @@
         <v>250</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="19">
+    <row r="6" spans="1:3" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>3</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C6" s="19" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="19">
+    <row r="7" spans="1:3" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>2</v>
       </c>
@@ -4084,7 +4083,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="19">
+    <row r="8" spans="1:3" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>2</v>
       </c>
@@ -4095,7 +4094,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="19">
+    <row r="9" spans="1:3" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>2</v>
       </c>
@@ -4106,7 +4105,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="19">
+    <row r="10" spans="1:3" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>2</v>
       </c>
@@ -4117,7 +4116,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="19">
+    <row r="11" spans="1:3" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>2</v>
       </c>
@@ -4128,7 +4127,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="19">
+    <row r="12" spans="1:3" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>2</v>
       </c>
@@ -4139,7 +4138,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="19">
+    <row r="13" spans="1:3" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A13" s="14">
         <v>2</v>
       </c>
@@ -4150,7 +4149,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="19">
+    <row r="14" spans="1:3" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>2</v>
       </c>
@@ -4161,7 +4160,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="19">
+    <row r="15" spans="1:3" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>2</v>
       </c>
@@ -4172,7 +4171,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="19">
+    <row r="16" spans="1:3" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>2</v>
       </c>
@@ -4183,7 +4182,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="19">
+    <row r="17" spans="1:3" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>2</v>
       </c>
@@ -4194,7 +4193,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="19">
+    <row r="18" spans="1:3" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>2</v>
       </c>
@@ -4205,7 +4204,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="19">
+    <row r="19" spans="1:3" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>2</v>
       </c>
@@ -4216,7 +4215,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="19">
+    <row r="20" spans="1:3" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>2</v>
       </c>
@@ -4227,18 +4226,18 @@
         <v>231</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="19">
+    <row r="21" spans="1:3" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>2</v>
       </c>
       <c r="B21" s="22" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C21" s="19" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="19">
+    <row r="22" spans="1:3" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>1</v>
       </c>
@@ -4249,7 +4248,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="19">
+    <row r="23" spans="1:3" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>1</v>
       </c>
@@ -4260,7 +4259,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="19">
+    <row r="24" spans="1:3" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>1</v>
       </c>
@@ -4271,7 +4270,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="19">
+    <row r="25" spans="1:3" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>1</v>
       </c>
@@ -4282,7 +4281,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="19">
+    <row r="26" spans="1:3" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>1</v>
       </c>
@@ -4293,7 +4292,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="19">
+    <row r="27" spans="1:3" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <v>1</v>
       </c>
@@ -4304,7 +4303,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="19">
+    <row r="28" spans="1:3" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
         <v>1</v>
       </c>
@@ -4315,7 +4314,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="19">
+    <row r="29" spans="1:3" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A29" s="14">
         <v>1</v>
       </c>
@@ -4326,7 +4325,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="19">
+    <row r="30" spans="1:3" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
         <v>1</v>
       </c>
@@ -4337,7 +4336,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="19">
+    <row r="31" spans="1:3" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
         <v>1</v>
       </c>
@@ -4348,7 +4347,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="19">
+    <row r="32" spans="1:3" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A32" s="3">
         <v>1</v>
       </c>
@@ -4359,7 +4358,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="19">
+    <row r="33" spans="1:3" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A33" s="10">
         <v>1</v>
       </c>
@@ -4370,7 +4369,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="19">
+    <row r="34" spans="1:3" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A34" s="3">
         <v>1</v>
       </c>
@@ -4381,7 +4380,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="19">
+    <row r="35" spans="1:3" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A35" s="3">
         <v>1</v>
       </c>
@@ -4392,7 +4391,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="19">
+    <row r="36" spans="1:3" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A36" s="3">
         <v>1</v>
       </c>
@@ -4403,7 +4402,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="19">
+    <row r="37" spans="1:3" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A37" s="3">
         <v>1</v>
       </c>
@@ -4414,7 +4413,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="19">
+    <row r="38" spans="1:3" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A38" s="3">
         <v>1</v>
       </c>
@@ -4425,7 +4424,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="19">
+    <row r="39" spans="1:3" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A39" s="3">
         <v>1</v>
       </c>
@@ -4436,7 +4435,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="19">
+    <row r="40" spans="1:3" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A40" s="3">
         <v>1</v>
       </c>
@@ -4447,7 +4446,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="19">
+    <row r="41" spans="1:3" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A41" s="3">
         <v>1</v>
       </c>
@@ -4458,7 +4457,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="19">
+    <row r="42" spans="1:3" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A42" s="3">
         <v>1</v>
       </c>
@@ -4469,7 +4468,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="19">
+    <row r="43" spans="1:3" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A43" s="3">
         <v>1</v>
       </c>
@@ -4480,7 +4479,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="19">
+    <row r="44" spans="1:3" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A44" s="3">
         <v>1</v>
       </c>
@@ -4491,7 +4490,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="19">
+    <row r="45" spans="1:3" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A45" s="3">
         <v>1</v>
       </c>
@@ -4502,7 +4501,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="19">
+    <row r="46" spans="1:3" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A46" s="3">
         <v>1</v>
       </c>
@@ -4513,7 +4512,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="19">
+    <row r="47" spans="1:3" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A47" s="3">
         <v>1</v>
       </c>
@@ -4524,7 +4523,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="19">
+    <row r="48" spans="1:3" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A48" s="3">
         <v>1</v>
       </c>
@@ -4535,7 +4534,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="19">
+    <row r="49" spans="1:3" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A49" s="3">
         <v>1</v>
       </c>
@@ -4543,10 +4542,10 @@
         <v>90</v>
       </c>
       <c r="C49" s="19" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" ht="19">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A50" s="11">
         <v>3</v>
       </c>
@@ -4554,10 +4553,10 @@
         <v>147</v>
       </c>
       <c r="C50" s="21" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" ht="19">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A51" s="3">
         <v>1</v>
       </c>
@@ -4565,10 +4564,10 @@
         <v>151</v>
       </c>
       <c r="C51" s="19" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" ht="19">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A52" s="3">
         <v>1</v>
       </c>
@@ -4576,10 +4575,10 @@
         <v>180</v>
       </c>
       <c r="C52" s="19" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" ht="19">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A53" s="3">
         <v>1</v>
       </c>
@@ -4590,7 +4589,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="54" spans="1:3" ht="19">
+    <row r="54" spans="1:3" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A54" s="3">
         <v>1</v>
       </c>
@@ -4598,10 +4597,10 @@
         <v>184</v>
       </c>
       <c r="C54" s="19" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" ht="19">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A55" s="10">
         <v>0</v>
       </c>
@@ -4612,7 +4611,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="56" spans="1:3" ht="19">
+    <row r="56" spans="1:3" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A56" s="3">
         <v>0</v>
       </c>
@@ -4623,7 +4622,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="57" spans="1:3" ht="19">
+    <row r="57" spans="1:3" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A57" s="3">
         <v>0</v>
       </c>
@@ -4634,7 +4633,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="58" spans="1:3" ht="19">
+    <row r="58" spans="1:3" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A58" s="3">
         <v>0</v>
       </c>
@@ -4645,7 +4644,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="59" spans="1:3" ht="19">
+    <row r="59" spans="1:3" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A59" s="3">
         <v>0</v>
       </c>
@@ -4656,7 +4655,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="60" spans="1:3" ht="19">
+    <row r="60" spans="1:3" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A60" s="3">
         <v>0</v>
       </c>
@@ -4667,7 +4666,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="61" spans="1:3" ht="19">
+    <row r="61" spans="1:3" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A61" s="3">
         <v>1</v>
       </c>
@@ -4678,7 +4677,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="62" spans="1:3" ht="19">
+    <row r="62" spans="1:3" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A62" s="3">
         <v>0</v>
       </c>
@@ -4689,7 +4688,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="63" spans="1:3" ht="19">
+    <row r="63" spans="1:3" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A63" s="3">
         <v>0</v>
       </c>
@@ -4697,10 +4696,10 @@
         <v>187</v>
       </c>
       <c r="C63" s="19" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" ht="19">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A64" s="3">
         <v>0</v>
       </c>
@@ -4708,10 +4707,10 @@
         <v>104</v>
       </c>
       <c r="C64" s="19" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" ht="19">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A65" s="10">
         <v>0</v>
       </c>
@@ -4719,10 +4718,10 @@
         <v>107</v>
       </c>
       <c r="C65" s="20" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" ht="19">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A66" s="3">
         <v>0</v>
       </c>
@@ -4730,10 +4729,10 @@
         <v>108</v>
       </c>
       <c r="C66" s="19" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" ht="19">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A67" s="3">
         <v>0</v>
       </c>
@@ -4741,10 +4740,10 @@
         <v>110</v>
       </c>
       <c r="C67" s="19" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" ht="19">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A68" s="3">
         <v>0</v>
       </c>
@@ -4752,10 +4751,10 @@
         <v>113</v>
       </c>
       <c r="C68" s="19" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" ht="19">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A69" s="3">
         <v>0</v>
       </c>
@@ -4766,7 +4765,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="70" spans="1:3" ht="19">
+    <row r="70" spans="1:3" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A70" s="3">
         <v>0</v>
       </c>
@@ -4774,10 +4773,10 @@
         <v>116</v>
       </c>
       <c r="C70" s="19" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" ht="19">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A71" s="3">
         <v>0</v>
       </c>
@@ -4785,10 +4784,10 @@
         <v>118</v>
       </c>
       <c r="C71" s="19" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" ht="19">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A72" s="3">
         <v>0</v>
       </c>
@@ -4796,10 +4795,10 @@
         <v>119</v>
       </c>
       <c r="C72" s="19" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" ht="19">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A73" s="3">
         <v>0</v>
       </c>
@@ -4807,10 +4806,10 @@
         <v>120</v>
       </c>
       <c r="C73" s="19" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" ht="19">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A74" s="3">
         <v>0</v>
       </c>
@@ -4818,10 +4817,10 @@
         <v>124</v>
       </c>
       <c r="C74" s="19" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" ht="19">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A75" s="3">
         <v>0</v>
       </c>
@@ -4829,10 +4828,10 @@
         <v>126</v>
       </c>
       <c r="C75" s="19" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" ht="19">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A76" s="3">
         <v>0</v>
       </c>
@@ -4840,10 +4839,10 @@
         <v>135</v>
       </c>
       <c r="C76" s="19" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" ht="19">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A77" s="3">
         <v>0</v>
       </c>
@@ -4851,10 +4850,10 @@
         <v>136</v>
       </c>
       <c r="C77" s="19" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" ht="19">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A78" s="3">
         <v>0</v>
       </c>
@@ -4862,10 +4861,10 @@
         <v>137</v>
       </c>
       <c r="C78" s="19" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" ht="19">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A79" s="3">
         <v>0</v>
       </c>
@@ -4873,10 +4872,10 @@
         <v>139</v>
       </c>
       <c r="C79" s="19" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" ht="19">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A80" s="3">
         <v>0</v>
       </c>
@@ -4884,10 +4883,10 @@
         <v>140</v>
       </c>
       <c r="C80" s="19" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" ht="19">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A81" s="3">
         <v>0</v>
       </c>
@@ -4895,10 +4894,10 @@
         <v>141</v>
       </c>
       <c r="C81" s="19" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" ht="19">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A82" s="3">
         <v>0</v>
       </c>
@@ -4906,10 +4905,10 @@
         <v>142</v>
       </c>
       <c r="C82" s="19" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" ht="19">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A83" s="3">
         <v>0</v>
       </c>
@@ -4917,10 +4916,10 @@
         <v>146</v>
       </c>
       <c r="C83" s="19" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" ht="19">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A84" s="3">
         <v>0</v>
       </c>
@@ -4928,10 +4927,10 @@
         <v>148</v>
       </c>
       <c r="C84" s="19" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" ht="19">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A85" s="3">
         <v>0</v>
       </c>
@@ -4939,10 +4938,10 @@
         <v>150</v>
       </c>
       <c r="C85" s="19" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" ht="19">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A86" s="3">
         <v>0</v>
       </c>
@@ -4950,10 +4949,10 @@
         <v>152</v>
       </c>
       <c r="C86" s="19" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" ht="19">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A87" s="3">
         <v>0</v>
       </c>
@@ -4961,10 +4960,10 @@
         <v>153</v>
       </c>
       <c r="C87" s="19" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" ht="19">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A88" s="3">
         <v>0</v>
       </c>
@@ -4972,10 +4971,10 @@
         <v>154</v>
       </c>
       <c r="C88" s="19" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" ht="19">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A89" s="3">
         <v>0</v>
       </c>
@@ -4983,10 +4982,10 @@
         <v>156</v>
       </c>
       <c r="C89" s="19" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" ht="19">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A90" s="3">
         <v>0</v>
       </c>
@@ -4994,10 +4993,10 @@
         <v>157</v>
       </c>
       <c r="C90" s="19" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" ht="19">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A91" s="3">
         <v>0</v>
       </c>
@@ -5005,10 +5004,10 @@
         <v>158</v>
       </c>
       <c r="C91" s="19" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" ht="19">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A92" s="3">
         <v>0</v>
       </c>
@@ -5016,10 +5015,10 @@
         <v>159</v>
       </c>
       <c r="C92" s="19" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" ht="19">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A93" s="3">
         <v>0</v>
       </c>
@@ -5027,10 +5026,10 @@
         <v>160</v>
       </c>
       <c r="C93" s="19" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" ht="19">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A94" s="3">
         <v>0</v>
       </c>
@@ -5038,10 +5037,10 @@
         <v>163</v>
       </c>
       <c r="C94" s="19" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" ht="19">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A95" s="3">
         <v>1</v>
       </c>
@@ -5049,10 +5048,10 @@
         <v>166</v>
       </c>
       <c r="C95" s="19" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" ht="19">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A96" s="3">
         <v>0</v>
       </c>
@@ -5060,10 +5059,10 @@
         <v>167</v>
       </c>
       <c r="C96" s="19" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" ht="19">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A97" s="3">
         <v>0</v>
       </c>
@@ -5071,10 +5070,10 @@
         <v>168</v>
       </c>
       <c r="C97" s="19" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" ht="19">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A98" s="3">
         <v>0</v>
       </c>
@@ -5082,10 +5081,10 @@
         <v>170</v>
       </c>
       <c r="C98" s="19" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" ht="19">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A99" s="3">
         <v>0</v>
       </c>
@@ -5093,10 +5092,10 @@
         <v>173</v>
       </c>
       <c r="C99" s="19" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" ht="19">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A100" s="3">
         <v>0</v>
       </c>
@@ -5104,10 +5103,10 @@
         <v>178</v>
       </c>
       <c r="C100" s="19" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" ht="19">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A101" s="3">
         <v>0</v>
       </c>
@@ -5115,10 +5114,10 @@
         <v>179</v>
       </c>
       <c r="C101" s="19" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" ht="19">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A102" s="3">
         <v>0</v>
       </c>
@@ -5126,10 +5125,10 @@
         <v>181</v>
       </c>
       <c r="C102" s="19" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" ht="19">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" ht="18.75" x14ac:dyDescent="0.2">
       <c r="C103" s="17"/>
     </row>
   </sheetData>
